--- a/results/metric_df/ConA_metrics.xlsx
+++ b/results/metric_df/ConA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>2.32970709169528</v>
       </c>
       <c r="D2" t="n">
+        <v>4.65941418339056</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.362150809882157</v>
+      </c>
+      <c r="F2" t="n">
         <v>36.49695000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.453</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>3.8</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-2)']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -540,30 +556,36 @@
         <v>2.538044235441332</v>
       </c>
       <c r="D3" t="n">
+        <v>5.076088470882665</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.753384233219247</v>
+      </c>
+      <c r="F3" t="n">
         <v>18.73797620237976</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.4340000000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>9.675000000000001</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -582,30 +604,36 @@
         <v>2.251101901585213</v>
       </c>
       <c r="D4" t="n">
+        <v>4.502203803170425</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.280227683002259</v>
+      </c>
+      <c r="F4" t="n">
         <v>28.4725902409759</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.4325</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1.61</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -624,30 +652,36 @@
         <v>2.651420443376771</v>
       </c>
       <c r="D5" t="n">
+        <v>2.651420443376771</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.651420443376771</v>
+      </c>
+      <c r="F5" t="n">
         <v>6.080800000000001</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.499</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>4.77</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -666,30 +700,36 @@
         <v>2.351384937873273</v>
       </c>
       <c r="D6" t="n">
+        <v>2.351384937873273</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.351384937873273</v>
+      </c>
+      <c r="F6" t="n">
         <v>10.52366666666666</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.42</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>['Man(a1-3)']</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -708,30 +748,36 @@
         <v>2.679408235125698</v>
       </c>
       <c r="D7" t="n">
+        <v>2.679408235125698</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.679408235125698</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.431</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.43</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>['Man(a1-2)']</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -750,30 +796,36 @@
         <v>2.112871867249531</v>
       </c>
       <c r="D8" t="n">
+        <v>6.338615601748595</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.251887232513918</v>
+      </c>
+      <c r="F8" t="n">
         <v>36.56924074074075</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.4133333333333333</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>6.386666666666667</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -792,30 +844,36 @@
         <v>2.281249567420965</v>
       </c>
       <c r="D9" t="n">
+        <v>6.843748702262895</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.488910808023066</v>
+      </c>
+      <c r="F9" t="n">
         <v>30.00621666666667</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.4463333333333333</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>7.973333333333334</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -834,30 +892,36 @@
         <v>2.412668958230134</v>
       </c>
       <c r="D10" t="n">
+        <v>7.238006874690403</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.505235247011588</v>
+      </c>
+      <c r="F10" t="n">
         <v>30.82761111111111</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.4456666666666667</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>4.48</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-3)']</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -876,30 +940,36 @@
         <v>2.447230052609561</v>
       </c>
       <c r="D11" t="n">
+        <v>7.341690157828683</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.568130278967355</v>
+      </c>
+      <c r="F11" t="n">
         <v>21.58610805586108</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.411</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>10.46666666666667</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -918,30 +988,36 @@
         <v>2.196976086347989</v>
       </c>
       <c r="D12" t="n">
+        <v>6.590928259043968</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.402306252462433</v>
+      </c>
+      <c r="F12" t="n">
         <v>28.66427357264273</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>0.431</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>6.920000000000001</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -960,30 +1036,36 @@
         <v>2.3839475508278</v>
       </c>
       <c r="D13" t="n">
+        <v>7.151842652483401</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.456060678658576</v>
+      </c>
+      <c r="F13" t="n">
         <v>18.39985714285714</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>0.4613333333333333</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>6.223333333333333</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1002,30 +1084,36 @@
         <v>2.230768577129615</v>
       </c>
       <c r="D14" t="n">
+        <v>6.692305731388845</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.423617038821429</v>
+      </c>
+      <c r="F14" t="n">
         <v>26.47798333333334</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>0.439</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>3.8</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-6)', 'Man(a1-2)']</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1044,30 +1132,36 @@
         <v>2.209281997836556</v>
       </c>
       <c r="D15" t="n">
+        <v>6.627845993509669</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.525591632529191</v>
+      </c>
+      <c r="F15" t="n">
         <v>21.11569728401411</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>0.4693333333333333</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>6.29</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-6)', 'Man(a1-3)']</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1086,30 +1180,36 @@
         <v>2.439672642021487</v>
       </c>
       <c r="D16" t="n">
+        <v>7.31901792606446</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.560270440720127</v>
+      </c>
+      <c r="F16" t="n">
         <v>22.38225</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.4283333333333334</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-2)']</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1128,30 +1228,36 @@
         <v>2.492866163715956</v>
       </c>
       <c r="D17" t="n">
+        <v>7.478598491147868</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.575386834662778</v>
+      </c>
+      <c r="F17" t="n">
         <v>14.98801784940399</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>0.418</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>6.350000000000001</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)', 'Man(a1-3)']</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1170,30 +1276,36 @@
         <v>2.66305373505464</v>
       </c>
       <c r="D18" t="n">
+        <v>5.32610747010928</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.76768229887049</v>
+      </c>
+      <c r="F18" t="n">
         <v>9.62791</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>0.411</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>9.379999999999999</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1212,30 +1324,36 @@
         <v>2.526816293663657</v>
       </c>
       <c r="D19" t="n">
+        <v>5.053632587327314</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.530553721246874</v>
+      </c>
+      <c r="F19" t="n">
         <v>15.02763776377638</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>0.4535</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>4.755</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1254,30 +1372,36 @@
         <v>2.612142753164796</v>
       </c>
       <c r="D20" t="n">
+        <v>5.224285506329593</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.637590683923242</v>
+      </c>
+      <c r="F20" t="n">
         <v>8.1526</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>0.392</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1296,30 +1420,36 @@
         <v>2.305367038233467</v>
       </c>
       <c r="D21" t="n">
+        <v>4.610734076466935</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.415892868585273</v>
+      </c>
+      <c r="F21" t="n">
         <v>24.73031053105311</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>0.467</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>8.35</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1338,30 +1468,36 @@
         <v>2.510073352700914</v>
       </c>
       <c r="D22" t="n">
+        <v>5.020146705401829</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.545281005075958</v>
+      </c>
+      <c r="F22" t="n">
         <v>29.494275</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>0.434</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>6.12</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1380,30 +1516,36 @@
         <v>2.293722998174635</v>
       </c>
       <c r="D23" t="n">
+        <v>4.58744599634927</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.381465013269206</v>
+      </c>
+      <c r="F23" t="n">
         <v>16.19009349065094</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>0.4455</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>2.405</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1422,30 +1564,36 @@
         <v>2.311199434060129</v>
       </c>
       <c r="D24" t="n">
+        <v>4.622398868120259</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.325370683812271</v>
+      </c>
+      <c r="F24" t="n">
         <v>16.27265453090618</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>0.472</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>6.3</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>['Man(a1-3)', 'Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>['Man(a1-?)']</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
